--- a/HomeWork 2/data.xlsx
+++ b/HomeWork 2/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ПК\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ПК\Desktop\GlobalTask\HomeWork 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F7C967-D963-47AA-8BFB-F94A01F95AD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850DEDF5-E723-4EFF-9D73-F80E2D2C79B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{7EC4BE7D-8299-422E-A6B2-10B158DFFB14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{7EC4BE7D-8299-422E-A6B2-10B158DFFB14}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>FIO</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>order_3</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DE4122-64D8-411F-BD0A-DD8A26D0E4BD}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -572,10 +569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E51DB5-ECB6-4868-8D1B-BCEAB62C2BF3}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +582,7 @@
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -598,11 +595,8 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -616,7 +610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -630,7 +624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -654,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C90111-4083-46F3-9764-763FA420F9A4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
